--- a/measurement/Latenza vs Periodo.xlsx
+++ b/measurement/Latenza vs Periodo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/Developer/Progettazione di un nodo FastFlow per integrazione di acceleratori - TESI Unipi/measurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048FB3D-1727-D045-A358-C356C9151E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA02029-A38E-204F-9666-DE91EE4D13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31200" yWindow="500" windowWidth="31340" windowHeight="28300" xr2:uid="{97DB2939-6429-544B-8254-7B11C0841E60}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>Acceleratore</t>
   </si>
   <si>
-    <t>vecAdd</t>
+    <t>vsum</t>
   </si>
   <si>
-    <t>heavy_compute</t>
+    <t>poly</t>
   </si>
   <si>
-    <t>polynomial_op</t>
+    <t>heavy</t>
   </si>
 </sst>
 </file>
@@ -268,31 +268,31 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -392,31 +392,31 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>vecAdd</c:v>
+                    <c:v>vsum</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>polynomial_op</c:v>
+                    <c:v>poly</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>heavy_compute</c:v>
+                    <c:v>heavy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>66.963200000000001</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>90.659800000000004</v>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>33.942500000000003</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>51.519100000000002</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>399.89100000000002</v>
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>17713.400000000001</v>
